--- a/www/ig/fhir/pdsm/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/www/ig/fhir/pdsm/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T12:21:07+01:00</t>
+    <t>2024-05-29T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,13 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « ComprehensiveSubmissionSet  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « ComprehensiveSubmissionSet » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -231,6 +231,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers le profil PDSm_SubmissionSetComprehensive</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>Mapping: XDS and MHD Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers le profil PDSm_SubmissionSetComprehensive</t>
   </si>
   <si>
     <t>Collection
@@ -266,13 +266,17 @@
     <t>A list is a curated collection of resources.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
+  </si>
+  <si>
+    <t>LotDeSoumission</t>
+  </si>
+  <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
   </si>
   <si>
     <t>XDS SubmissionSet</t>
-  </si>
-  <si>
-    <t>LotDeSoumission</t>
   </si>
   <si>
     <t>List.id</t>
@@ -580,11 +584,11 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t>Practitioner {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitioner-rass}
-Organization {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass}Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}PractitionerRole {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-professionalRole-rass}Device</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : source ou source.extension[authorOrg]</t>
   </si>
   <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
@@ -639,7 +643,7 @@
 - TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 
 - TRE_R209-TypeActivite, OID : 1.2.250.1.213.2.2 
 - TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J59-ContentTypeCode-DMP). 
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {f:extension[designationType]}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>typeActivite : [1..1] Code</t>
@@ -694,9 +698,6 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>XDS contentTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
   </si>
   <si>
@@ -751,13 +752,16 @@
     <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
   </si>
   <si>
+    <t>SubmissionSet.intendedRecipient</t>
+  </si>
+  <si>
     <t>List.extension:isArchived</t>
   </si>
   <si>
     <t>isArchived</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-is-archived}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-is-archived}
 </t>
   </si>
   <si>
@@ -770,38 +774,38 @@
     <t>statut : [1..1] Code</t>
   </si>
   <si>
-    <t>List.extension:PDSm_intendedRecipient</t>
-  </si>
-  <si>
-    <t>PDSm_intendedRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmintendedrecipient}
+    <t>List.extension:PDSmintendedRecipient</t>
+  </si>
+  <si>
+    <t>PDSmintendedRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-intended-recipient}
 </t>
   </si>
   <si>
+    <t>Représente le destinataire du lot de soumission. Il peut s'agir d'un AsPractitioner associé à un AsPractitionerRole ou bien d'une AsOrganization.</t>
+  </si>
+  <si>
     <t>Représente le destinataire du lot de soumission</t>
   </si>
   <si>
-    <t>Les ressources référencées sont : - PractitionerRole : Dans le cas d’un destinaire professionnel, c’est le profil PractitionerRoleOrgani zationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfes sionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner. - Organization contrainte au profil FrOrganization</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.id</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.extension</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.url</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmintendedrecipient</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass) &lt;&lt;contained&gt;&gt;
+    <t>List.extension:PDSmintendedRecipient.id</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.extension</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.url</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-intended-recipient</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -853,10 +857,10 @@
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
+    <t>idUnique : [0..1] Identifiant</t>
+  </si>
+  <si>
     <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>idUnique : [0..1] Identifiant</t>
   </si>
   <si>
     <t>List.identifier:entryUUID</t>
@@ -956,13 +960,13 @@
     <t>Dr. Jane's Patients</t>
   </si>
   <si>
+    <t>titre : [0..1] Texte</t>
+  </si>
+  <si>
     <t>.title</t>
   </si>
   <si>
     <t>SubmissionSet.title</t>
-  </si>
-  <si>
-    <t>titre : [0..1] Texte</t>
   </si>
   <si>
     <t>List.code</t>
@@ -1003,11 +1007,11 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
-    <t>Référence vers la ressource Patient contained titulaire du dossier.</t>
+    <t>Référence vers la ressource Patient titulaire du dossier.</t>
   </si>
   <si>
     <t>The common subject (or patient) of the resources that are in the list if there is one.</t>
@@ -1019,6 +1023,9 @@
     <t>The primary purpose of listing the subject explicitly is to help with finding the right list.</t>
   </si>
   <si>
+    <t>idPatient : [0..1] Identifiant</t>
+  </si>
+  <si>
     <t>.participation[typeCode&lt;SUB].role (and sometimes .player)</t>
   </si>
   <si>
@@ -1026,9 +1033,6 @@
   </si>
   <si>
     <t>SubmissionSet.patientId</t>
-  </si>
-  <si>
-    <t>idPatient : [0..1] Identifiant</t>
   </si>
   <si>
     <t>List.encounter</t>
@@ -1069,6 +1073,9 @@
     <t>Identifies how current the list is which affects relevance.</t>
   </si>
   <si>
+    <t>dateSoumission : [1..1] DateHeure</t>
+  </si>
+  <si>
     <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
   </si>
   <si>
@@ -1076,9 +1083,6 @@
   </si>
   <si>
     <t>SubmissionSet.submissionTime</t>
-  </si>
-  <si>
-    <t>dateSoumission : [1..1] DateHeure</t>
   </si>
   <si>
     <t>List.source</t>
@@ -1088,11 +1092,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
-    <t>Représente les personnes physiques ou morales et/ou les dispositifs auteurs d’un lot de soumission.</t>
+    <t>Représente l'auteur du lot de soumission. Si l'auteur est une organisation, utiliser l'extension authorOrg. Si l’auteur est une personne physique ou un dispositif, utiliser l’attribut source.reference .</t>
   </si>
   <si>
     <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
@@ -1102,10 +1106,6 @@
   </si>
   <si>
     <t>Allows follow-up as well as context.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {f:source}</t>
   </si>
   <si>
     <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
@@ -1133,15 +1133,10 @@
 </t>
   </si>
   <si>
-    <t>Organisation auteur du document</t>
-  </si>
-  <si>
-    <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}constr-bind-authororg:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "source" n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].
-La ressource référencée doit être présente sous l’élément List.contained. {f:source/f:extension[authorOrg]}</t>
+    <t>Auteur organisationnel du document</t>
+  </si>
+  <si>
+    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
     <t>auteur : [1..1] Identifiant</t>
@@ -1174,7 +1169,7 @@
     <t>List.source.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1302,13 +1297,13 @@
     <t>Comments that apply to the overall list.</t>
   </si>
   <si>
+    <t>commentaire : [0..1] Texte</t>
+  </si>
+  <si>
     <t>.inboundRelationship[typeCode=SUBJ].act.text</t>
   </si>
   <si>
     <t>SubmissionSet.comments</t>
-  </si>
-  <si>
-    <t>commentaire : [0..1] Texte</t>
   </si>
   <si>
     <t>List.entry</t>
@@ -1438,13 +1433,13 @@
     <t>A reference to the actual resource from which data was derived.</t>
   </si>
   <si>
+    <t>Classeur : [0..*]</t>
+  </si>
+  <si>
     <t>.target or .role or .role.entity</t>
   </si>
   <si>
     <t>references to DocumentReference(s) and Folder List(s)</t>
-  </si>
-  <si>
-    <t>Classeur : [0..*]</t>
   </si>
   <si>
     <t>List.emptyReason</t>
@@ -1590,10 +1585,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1789,17 +1784,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.06640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.24609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="254.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1808,26 +1803,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.0234375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.08203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.79296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="101.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="177.53125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.21875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="77.10546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="85.02734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="185.94140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="51.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2049,27 +2044,27 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2080,7 +2075,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2089,19 +2084,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2151,13 +2146,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2180,10 +2175,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2194,7 +2189,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2203,16 +2198,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2263,19 +2258,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2292,10 +2287,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2306,7 +2301,7 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
@@ -2318,13 +2313,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2375,13 +2370,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -2390,10 +2385,10 @@
         <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2404,14 +2399,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2430,16 +2425,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2477,19 +2472,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2501,13 +2496,13 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2518,10 +2513,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2532,7 +2527,7 @@
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2541,19 +2536,19 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2603,19 +2598,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2632,10 +2627,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2646,7 +2641,7 @@
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2655,19 +2650,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2717,19 +2712,19 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2746,10 +2741,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2760,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2769,19 +2764,19 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2831,19 +2826,19 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2860,10 +2855,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2883,19 +2878,19 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2945,7 +2940,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2957,7 +2952,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2966,18 +2961,18 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2997,19 +2992,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3035,13 +3030,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -3059,7 +3054,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3071,7 +3066,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3088,10 +3083,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3111,19 +3106,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3149,13 +3144,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3173,7 +3168,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3185,7 +3180,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3202,10 +3197,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3216,28 +3211,28 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3287,19 +3282,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3316,10 +3311,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3330,7 +3325,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3342,16 +3337,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3377,13 +3372,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3401,19 +3396,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3430,21 +3425,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3456,16 +3451,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3515,25 +3510,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3544,24 +3539,24 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
@@ -3570,16 +3565,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3629,7 +3624,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3644,10 +3639,10 @@
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3658,10 +3653,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3669,7 +3664,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3684,13 +3679,13 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3729,17 +3724,17 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3746,7 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -3768,26 +3763,26 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
@@ -3796,13 +3791,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3853,7 +3848,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3862,13 +3857,13 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3877,15 +3872,15 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3896,7 +3891,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3908,13 +3903,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3965,13 +3960,13 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
@@ -3980,10 +3975,10 @@
         <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -3994,10 +3989,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4020,13 +4015,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4065,19 +4060,19 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4089,7 +4084,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4106,10 +4101,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4117,10 +4112,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4132,16 +4127,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4149,7 +4144,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>78</v>
@@ -4191,13 +4186,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -4206,10 +4201,10 @@
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4220,10 +4215,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4231,10 +4226,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4246,13 +4241,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4279,11 +4274,9 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
         <v>217</v>
       </c>
@@ -4307,19 +4300,19 @@
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4333,7 +4326,7 @@
         <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>222</v>
@@ -4343,10 +4336,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4358,13 +4351,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4421,19 +4414,19 @@
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4447,7 +4440,7 @@
         <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>224</v>
@@ -4457,10 +4450,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4529,7 +4522,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4541,10 +4534,10 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4553,7 +4546,7 @@
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -4561,7 +4554,7 @@
         <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>230</v>
@@ -4574,7 +4567,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4643,7 +4636,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4655,7 +4648,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4667,18 +4660,18 @@
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -4688,7 +4681,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4700,13 +4693,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4757,7 +4750,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4769,10 +4762,10 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -4781,18 +4774,18 @@
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4805,7 +4798,7 @@
         <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4814,13 +4807,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4871,7 +4864,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4883,7 +4876,7 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4900,10 +4893,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4914,7 +4907,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4926,13 +4919,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4983,13 +4976,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4998,10 +4991,10 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5012,10 +5005,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5038,13 +5031,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5083,19 +5076,19 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5104,10 +5097,10 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5124,10 +5117,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5135,10 +5128,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5150,16 +5143,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5167,7 +5160,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>78</v>
@@ -5209,13 +5202,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5224,10 +5217,10 @@
         <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5238,10 +5231,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5252,7 +5245,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5264,13 +5257,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5327,19 +5320,19 @@
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5350,10 +5343,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5370,19 +5363,19 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5433,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5438,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5462,10 +5455,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5488,13 +5481,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5533,17 +5526,17 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5555,10 +5548,10 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>259</v>
@@ -5567,18 +5560,18 @@
         <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
@@ -5588,10 +5581,10 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
@@ -5600,13 +5593,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5657,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5666,33 +5659,33 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
@@ -5705,7 +5698,7 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
@@ -5714,13 +5707,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5771,7 +5764,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5780,30 +5773,30 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5811,31 +5804,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5846,7 +5839,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -5861,13 +5854,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5885,22 +5878,22 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>282</v>
@@ -5909,15 +5902,15 @@
         <v>283</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5925,34 +5918,34 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5962,7 +5955,7 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>78</v>
@@ -5977,13 +5970,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6001,22 +5994,22 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>293</v>
@@ -6025,15 +6018,15 @@
         <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6044,29 +6037,29 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6079,7 +6072,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6115,39 +6108,39 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6155,34 +6148,34 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6192,7 +6185,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -6207,11 +6200,11 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6229,22 +6222,22 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>311</v>
@@ -6253,15 +6246,15 @@
         <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6269,34 +6262,34 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6345,39 +6338,39 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6400,13 +6393,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6457,39 +6450,39 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6497,34 +6490,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6573,74 +6566,74 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6689,31 +6682,31 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -6732,7 +6725,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6744,13 +6737,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6801,13 +6794,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6816,10 +6809,10 @@
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6837,7 +6830,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6856,16 +6849,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6903,19 +6896,19 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6927,13 +6920,13 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6960,7 +6953,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7029,7 +7022,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7041,11 +7034,11 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7053,15 +7046,15 @@
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7072,7 +7065,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7084,13 +7077,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7141,13 +7134,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7156,10 +7149,10 @@
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7170,10 +7163,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7196,13 +7189,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7241,19 +7234,19 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7265,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7282,10 +7275,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7293,10 +7286,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7308,16 +7301,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7325,7 +7318,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -7367,13 +7360,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7382,10 +7375,10 @@
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7396,10 +7389,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7407,10 +7400,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7422,13 +7415,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7483,19 +7476,19 @@
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7506,23 +7499,23 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7534,13 +7527,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7597,19 +7590,19 @@
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7620,10 +7613,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7634,7 +7627,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7643,19 +7636,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7705,25 +7698,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7734,10 +7727,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7748,7 +7741,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7757,19 +7750,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7795,49 +7788,49 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7848,10 +7841,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7862,7 +7855,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7871,19 +7864,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7933,25 +7926,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7962,10 +7955,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7976,7 +7969,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7985,19 +7978,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8047,25 +8040,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8076,10 +8069,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8102,19 +8095,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8139,63 +8132,63 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z56" t="s" s="2">
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8206,7 +8199,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8218,13 +8211,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8275,7 +8268,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8287,27 +8280,27 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AM57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8330,16 +8323,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8389,7 +8382,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8398,16 +8391,16 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8418,10 +8411,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8432,7 +8425,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8444,13 +8437,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8501,13 +8494,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -8516,10 +8509,10 @@
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8530,14 +8523,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8556,16 +8549,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8615,7 +8608,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8627,13 +8620,13 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8644,14 +8637,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8664,25 +8657,25 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8731,7 +8724,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8743,13 +8736,13 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8760,10 +8753,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8786,19 +8779,19 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8823,14 +8816,14 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8847,39 +8840,39 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8896,108 +8889,108 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="O63" t="s" s="2">
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" t="s" s="2">
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI63" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI63" t="s" s="2">
+      <c r="AJ63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AM63" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9020,17 +9013,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9079,39 +9072,39 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9119,10 +9112,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9134,13 +9127,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9191,39 +9184,39 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AM65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9246,19 +9239,19 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9283,55 +9276,55 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AM66" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
